--- a/AxK/test-images/axk-test-images.xlsx
+++ b/AxK/test-images/axk-test-images.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\sampler-fs\AxK\test-images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EA04AA-772A-4752-B839-953CB21F5A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83851A31-190F-40B7-ACAC-99254AF55391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18E6C213-033A-4C49-BA82-54A896297720}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,9 +679,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="1"/>
       <c r="I5" s="3" t="s">
         <v>26</v>
@@ -704,7 +702,9 @@
         <v>20</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="2" t="s">
         <v>25</v>

--- a/AxK/test-images/axk-test-images.xlsx
+++ b/AxK/test-images/axk-test-images.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\sampler-fs\AxK\test-images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\github\sampler-fs\AxK\test-images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83851A31-190F-40B7-ACAC-99254AF55391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2337B3C-378A-47AB-B2DD-14921AC4D67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18E6C213-033A-4C49-BA82-54A896297720}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{18E6C213-033A-4C49-BA82-54A896297720}"/>
   </bookViews>
   <sheets>
     <sheet name="disk images" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -108,12 +108,6 @@
 - 002: "Pgm 003"</t>
   </si>
   <si>
-    <t>- "New SmpBank"</t>
-  </si>
-  <si>
-    <t>- "SINE"</t>
-  </si>
-  <si>
     <t>- "New Volume"</t>
   </si>
   <si>
@@ -173,6 +167,127 @@
   </si>
   <si>
     <t>Mono</t>
+  </si>
+  <si>
+    <t>a4k-test-09.hds</t>
+  </si>
+  <si>
+    <t>a4k-test-10.hds</t>
+  </si>
+  <si>
+    <t>a4k-test-11.hds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4k-test-12.hds	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2097152 bytes	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4k-test-13.hds	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4k-test-14.hds	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4k-test-15.hds	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4k-test-16.hds	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4k-test-18.hds	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4k-test-19.hds	</t>
+  </si>
+  <si>
+    <t>- "New Partition "
+- "New Partition 1 "</t>
+  </si>
+  <si>
+    <t>- "New Partition   "
+- "New Partition 1 "</t>
+  </si>
+  <si>
+    <t>- "New Partition  "
+- "New Partition 1 "</t>
+  </si>
+  <si>
+    <t>a4k-test-17.hds</t>
+  </si>
+  <si>
+    <t>OneSample(Bank)</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>-1: "New Volume "
+-2: "New Volume 01"</t>
+  </si>
+  <si>
+    <t>- "New Volume "
+- "New Volume 01"</t>
+  </si>
+  <si>
+    <t>a:"New Partition   "</t>
+  </si>
+  <si>
+    <t>- 1a:"New Volume "
+- 2a:"New Volume 01"</t>
+  </si>
+  <si>
+    <t>- 2a:"SINE"</t>
+  </si>
+  <si>
+    <t>- 1a:"New Volume"</t>
+  </si>
+  <si>
+    <t>- 1a:"SINE"</t>
+  </si>
+  <si>
+    <t>- a:"New Partition   "
+- b:"New Partition 1 "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4k-test-20.hds	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4k-test-21.hds	</t>
+  </si>
+  <si>
+    <t>- 1a: "New Volume "
+- 2b: "New Volume 01"</t>
+  </si>
+  <si>
+    <t>- 2b:"SINE"</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>- 1a: "New Volume"</t>
+  </si>
+  <si>
+    <t>- 1a:"New SmpBank"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4k-test-22.hds	</t>
+  </si>
+  <si>
+    <t>- 1a:"SINE"
+- 1a:"SINE       1"</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>- 1a:"SINEBIG"</t>
+  </si>
+  <si>
+    <t>- 1a:"SINE" 
+- 1a:"SINEBIG"</t>
   </si>
 </sst>
 </file>
@@ -196,15 +311,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -221,22 +342,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -551,10 +723,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88709598-8F44-4309-A14D-362745715F65}">
-  <dimension ref="A1:I9"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,229 +740,604 @@
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2" t="s">
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="F8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="C21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="2" t="s">
-        <v>25</v>
+      <c r="F21" s="13"/>
+      <c r="G21" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -812,67 +1362,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
       <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/AxK/test-images/axk-test-images.xlsx
+++ b/AxK/test-images/axk-test-images.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\github\sampler-fs\AxK\test-images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2337B3C-378A-47AB-B2DD-14921AC4D67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358153A7-43F0-48D8-B3D3-BBEA3F7194BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{18E6C213-033A-4C49-BA82-54A896297720}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{18E6C213-033A-4C49-BA82-54A896297720}"/>
   </bookViews>
   <sheets>
     <sheet name="disk images" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="116">
   <si>
     <t>Name</t>
   </si>
@@ -118,9 +118,6 @@
     <t>File</t>
   </si>
   <si>
-    <t>sine.wav</t>
-  </si>
-  <si>
     <t>AxK Name</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
   </si>
   <si>
     <t>Stereo / Mono</t>
-  </si>
-  <si>
-    <t>80328 bytes</t>
   </si>
   <si>
     <t>PCM</t>
@@ -280,14 +274,129 @@
 - 1a:"SINE       1"</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>- 1a:"SINEBIG"</t>
-  </si>
-  <si>
-    <t>- 1a:"SINE" 
-- 1a:"SINEBIG"</t>
+    <t>- 1a:"SINEL"</t>
+  </si>
+  <si>
+    <t>- 1a:"SINE2" 
+- 1a:"SINEL"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4k-test-23.hds	</t>
+  </si>
+  <si>
+    <t>- 1a:"SINE2" 
+- 1a:"SINES"</t>
+  </si>
+  <si>
+    <t>3145728 bytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4k-test-24.hds	</t>
+  </si>
+  <si>
+    <t>- 1a:"SINES"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4k-test-25.hds	</t>
+  </si>
+  <si>
+    <t>- 1a:"SINE2"</t>
+  </si>
+  <si>
+    <t>SINE.wav</t>
+  </si>
+  <si>
+    <t>SINE2.wav</t>
+  </si>
+  <si>
+    <t>SINE3S.wav</t>
+  </si>
+  <si>
+    <t>SINEL.wav</t>
+  </si>
+  <si>
+    <t>SINELS.wav</t>
+  </si>
+  <si>
+    <t>SINES.wav</t>
+  </si>
+  <si>
+    <t>SINE2</t>
+  </si>
+  <si>
+    <t>SINE3S</t>
+  </si>
+  <si>
+    <t>SINEL</t>
+  </si>
+  <si>
+    <t>SINELS</t>
+  </si>
+  <si>
+    <t>SINES</t>
+  </si>
+  <si>
+    <t>Stereo</t>
+  </si>
+  <si>
+    <t>WaveRIFF size</t>
+  </si>
+  <si>
+    <t>File size</t>
+  </si>
+  <si>
+    <t>Data size</t>
+  </si>
+  <si>
+    <t>882.128 bytes</t>
+  </si>
+  <si>
+    <t>1.587.628 bytes</t>
+  </si>
+  <si>
+    <t>1.323.128 bytes</t>
+  </si>
+  <si>
+    <t>352.928 bytes</t>
+  </si>
+  <si>
+    <t>88.328 bytes</t>
+  </si>
+  <si>
+    <t>88.320 bytes</t>
+  </si>
+  <si>
+    <t>88.200 bytes</t>
+  </si>
+  <si>
+    <t>352.920 bytes</t>
+  </si>
+  <si>
+    <t>882.120 bytes</t>
+  </si>
+  <si>
+    <t>352.800 bytes</t>
+  </si>
+  <si>
+    <t>1.323.120 bytes</t>
+  </si>
+  <si>
+    <t>1.323.000 bytes</t>
+  </si>
+  <si>
+    <t>1.587.720 bytes</t>
+  </si>
+  <si>
+    <t>1.587.600 bytes</t>
+  </si>
+  <si>
+    <t>882.000 bytes</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>sample wave file bigger than a 1.44mb floppy disk</t>
   </si>
 </sst>
 </file>
@@ -311,18 +420,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -374,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -386,16 +489,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -726,13 +819,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -774,29 +867,29 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -868,7 +961,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -885,15 +978,15 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -963,376 +1056,460 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="10">
-        <v>2</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="B23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="10">
-        <v>2</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="C24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10" t="s">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="F25" s="9"/>
+      <c r="G25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="11" t="s">
+      <c r="F26" s="9"/>
+      <c r="G26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="10">
-        <v>2</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="10">
-        <v>2</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="10">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>77</v>
+      <c r="J26" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1343,86 +1520,300 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6C7673-437A-48C0-B697-C5422C1C405D}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H3" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="K3" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/AxK/test-images/axk-test-images.xlsx
+++ b/AxK/test-images/axk-test-images.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\github\sampler-fs\AxK\test-images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.161\d\projects\github\sampler-fs\AxK\test-images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358153A7-43F0-48D8-B3D3-BBEA3F7194BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365B5E65-4E84-4651-921E-03CA80383391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{18E6C213-033A-4C49-BA82-54A896297720}"/>
+    <workbookView xWindow="24390" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{18E6C213-033A-4C49-BA82-54A896297720}"/>
   </bookViews>
   <sheets>
     <sheet name="disk images" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
@@ -348,9 +348,6 @@
     <t>Data size</t>
   </si>
   <si>
-    <t>882.128 bytes</t>
-  </si>
-  <si>
     <t>1.587.628 bytes</t>
   </si>
   <si>
@@ -372,9 +369,6 @@
     <t>352.920 bytes</t>
   </si>
   <si>
-    <t>882.120 bytes</t>
-  </si>
-  <si>
     <t>352.800 bytes</t>
   </si>
   <si>
@@ -390,13 +384,44 @@
     <t>1.587.600 bytes</t>
   </si>
   <si>
-    <t>882.000 bytes</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
     <t>sample wave file bigger than a 1.44mb floppy disk</t>
+  </si>
+  <si>
+    <t>same size as SINES, but mono</t>
+  </si>
+  <si>
+    <t>same size as SINE, but stereo</t>
+  </si>
+  <si>
+    <t>SINESM.wav</t>
+  </si>
+  <si>
+    <t>SINESM</t>
+  </si>
+  <si>
+    <t>8.948 bytes</t>
+  </si>
+  <si>
+    <t>small size for many waveforms in image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4k-test-26.hds	</t>
+  </si>
+  <si>
+    <t>AllSamples</t>
+  </si>
+  <si>
+    <t>- 1a:"SINESM" (30x)
+- pulse 1
+- pulse 2
+- pulse 3
+- saw up
+- sine wave
+- square
+- triangle</t>
   </si>
 </sst>
 </file>
@@ -504,7 +529,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -520,7 +545,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -819,13 +844,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -1452,7 +1477,7 @@
       <c r="I24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1480,7 +1505,7 @@
       <c r="I25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1508,8 +1533,36 @@
       <c r="I26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="6" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1520,13 +1573,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6C7673-437A-48C0-B697-C5422C1C405D}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
@@ -1579,7 +1632,7 @@
         <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1590,13 +1643,13 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
         <v>103</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>104</v>
-      </c>
-      <c r="E2" t="s">
-        <v>105</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1618,6 +1671,9 @@
       </c>
       <c r="L2" t="s">
         <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1628,13 +1684,13 @@
         <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
         <v>106</v>
-      </c>
-      <c r="E3" t="s">
-        <v>108</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1666,13 +1722,13 @@
         <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1704,13 +1760,13 @@
         <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -1734,7 +1790,7 @@
         <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1745,13 +1801,13 @@
         <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -1775,7 +1831,7 @@
         <v>95</v>
       </c>
       <c r="M6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1786,13 +1842,13 @@
         <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
@@ -1814,6 +1870,44 @@
       </c>
       <c r="L7" t="s">
         <v>95</v>
+      </c>
+      <c r="M7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/AxK/test-images/axk-test-images.xlsx
+++ b/AxK/test-images/axk-test-images.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.161\d\projects\github\sampler-fs\AxK\test-images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\github\sampler-fs\AxK\test-images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365B5E65-4E84-4651-921E-03CA80383391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CAA11E-03A2-4D31-9689-66CD4441ACB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24390" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{18E6C213-033A-4C49-BA82-54A896297720}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{18E6C213-033A-4C49-BA82-54A896297720}"/>
   </bookViews>
   <sheets>
     <sheet name="disk images" sheetId="1" r:id="rId1"/>
@@ -411,9 +411,6 @@
     <t xml:space="preserve">a4k-test-26.hds	</t>
   </si>
   <si>
-    <t>AllSamples</t>
-  </si>
-  <si>
     <t>- 1a:"SINESM" (30x)
 - pulse 1
 - pulse 2
@@ -422,6 +419,10 @@
 - sine wave
 - square
 - triangle</t>
+  </si>
+  <si>
+    <t>AllSamples
+file index is 10 sectors/5 clusters longer than a4k-test-13</t>
   </si>
 </sst>
 </file>
@@ -502,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -527,9 +528,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -545,7 +549,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -846,11 +850,11 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -1555,14 +1559,14 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>120</v>
+      <c r="J27" s="10" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1579,7 +1583,7 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>

--- a/AxK/test-images/axk-test-images.xlsx
+++ b/AxK/test-images/axk-test-images.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\github\sampler-fs\AxK\test-images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.161\d\projects\github\sampler-fs\AxK\test-images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CAA11E-03A2-4D31-9689-66CD4441ACB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EA2A76-B13A-40F9-BDB1-F72D6133C1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{18E6C213-033A-4C49-BA82-54A896297720}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21390" xr2:uid="{18E6C213-033A-4C49-BA82-54A896297720}"/>
   </bookViews>
   <sheets>
     <sheet name="disk images" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="162">
   <si>
     <t>Name</t>
   </si>
@@ -423,6 +423,126 @@
   <si>
     <t>AllSamples
 file index is 10 sectors/5 clusters longer than a4k-test-13</t>
+  </si>
+  <si>
+    <t>a4k-test-30.hds</t>
+  </si>
+  <si>
+    <t>1048576 bytes</t>
+  </si>
+  <si>
+    <t>a4k-test-31.hds</t>
+  </si>
+  <si>
+    <t>a4k-test-32.hds</t>
+  </si>
+  <si>
+    <t>a4k-test-33.hds</t>
+  </si>
+  <si>
+    <t>a4k-test-34.hds</t>
+  </si>
+  <si>
+    <t>a4k-test-35.hds</t>
+  </si>
+  <si>
+    <t>a4k-test-36.hds</t>
+  </si>
+  <si>
+    <t>a4k-test-37.hds</t>
+  </si>
+  <si>
+    <t>20.038 bytes</t>
+  </si>
+  <si>
+    <t>20.040 bytes</t>
+  </si>
+  <si>
+    <t>20.042 bytes</t>
+  </si>
+  <si>
+    <t>20.044 bytes</t>
+  </si>
+  <si>
+    <t>00009997.wav</t>
+  </si>
+  <si>
+    <t>00009998.wav</t>
+  </si>
+  <si>
+    <t>00009999.wav</t>
+  </si>
+  <si>
+    <t>000010k.wav</t>
+  </si>
+  <si>
+    <t>FF7F9997.wav</t>
+  </si>
+  <si>
+    <t>FF7F9998.wav</t>
+  </si>
+  <si>
+    <t>FF7F9999.wav</t>
+  </si>
+  <si>
+    <t>19.994 bytes</t>
+  </si>
+  <si>
+    <t>20.030 bytes</t>
+  </si>
+  <si>
+    <t>20.032 bytes</t>
+  </si>
+  <si>
+    <t>19.996 bytes</t>
+  </si>
+  <si>
+    <t>20.034 bytes</t>
+  </si>
+  <si>
+    <t>19.998 bytes</t>
+  </si>
+  <si>
+    <t>20.036 bytes</t>
+  </si>
+  <si>
+    <t>20.000 bytes</t>
+  </si>
+  <si>
+    <t>FF7F10k.wav</t>
+  </si>
+  <si>
+    <t>The next 4 files are built in a way, that the whole wave sequence consists of 0000 16 bit samples, the repeat for the amount of data size. The following files add one single sample. The purpose of this file is to figure out how changes by one sample within a whole disk image affect the disk image. Possibly for checksums or similar.</t>
+  </si>
+  <si>
+    <t>The next 4 files are built in a way, that the whole wave sequence consists of FF7F 16 bit samples (i.e. the max positive amount within a signed 16 bit sample), the repeat for the amount of data size. The following files add one single sample. The purpose of this file is to figure out how changes by one sample within a whole disk image affect the disk image. Possibly for checksums or similar.</t>
+  </si>
+  <si>
+    <t>see above</t>
+  </si>
+  <si>
+    <t>-1a: 00009997</t>
+  </si>
+  <si>
+    <t>-1a: 00009998</t>
+  </si>
+  <si>
+    <t>-1a: 00009999</t>
+  </si>
+  <si>
+    <t>-1a: 000010k</t>
+  </si>
+  <si>
+    <t>-1a: FF7F9997</t>
+  </si>
+  <si>
+    <t>-1a: FF7F9998</t>
+  </si>
+  <si>
+    <t>-1a: FF7F9999</t>
+  </si>
+  <si>
+    <t>-1a: FF7F10k</t>
   </si>
 </sst>
 </file>
@@ -503,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -531,9 +651,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -549,7 +670,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -848,13 +969,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -862,7 +983,7 @@
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
   </cols>
@@ -1568,6 +1689,902 @@
       <c r="J27" s="10" t="s">
         <v>121</v>
       </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="10"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="10"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="10"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="10"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="10"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="10"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="10"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="10"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="10"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="10"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="10"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="10"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="10"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="10"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="10"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="10"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="10"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="10"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="10"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="10"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1577,15 +2594,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6C7673-437A-48C0-B697-C5422C1C405D}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="A9" sqref="A9:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
@@ -1914,6 +2931,310 @@
         <v>118</v>
       </c>
     </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
